--- a/DummyData/Institutions.xlsx
+++ b/DummyData/Institutions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11505"/>
+    <workbookView windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="106">
-  <si>
-    <t>Institution</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="107">
+  <si>
+    <t>institution</t>
   </si>
   <si>
     <t>ins_id</t>
@@ -31,6 +31,9 @@
     <t>street_name</t>
   </si>
   <si>
+    <t>street_number</t>
+  </si>
+  <si>
     <t>zip</t>
   </si>
   <si>
@@ -40,7 +43,7 @@
     <t>NTUA</t>
   </si>
   <si>
-    <t>National Technical University of Athens</t>
+    <t>National Technical University of Athens end</t>
   </si>
   <si>
     <t>Patision</t>
@@ -52,7 +55,7 @@
     <t>NKUA</t>
   </si>
   <si>
-    <t>National and Kapodistrian University of Athens</t>
+    <t>National and Kapodistrian University of Athens end</t>
   </si>
   <si>
     <t>Imitou</t>
@@ -61,7 +64,7 @@
     <t>UOP</t>
   </si>
   <si>
-    <t>University of Patras</t>
+    <t>University of Patras end</t>
   </si>
   <si>
     <t>Ippokratous</t>
@@ -73,7 +76,7 @@
     <t>UTH</t>
   </si>
   <si>
-    <t>University of Thessaly</t>
+    <t>University of Thessaly end</t>
   </si>
   <si>
     <t>Argonafton</t>
@@ -85,16 +88,16 @@
     <t>UNIWA</t>
   </si>
   <si>
-    <t>University of West Attica</t>
-  </si>
-  <si>
-    <t>Agiou Spiridonos</t>
+    <t>University of West Attica end</t>
+  </si>
+  <si>
+    <t>Spiridonos</t>
   </si>
   <si>
     <t>TUC</t>
   </si>
   <si>
-    <t>Technical University of Crete</t>
+    <t>Technical University of Crete end</t>
   </si>
   <si>
     <t>Akrotiri</t>
@@ -106,7 +109,7 @@
     <t>DUTH</t>
   </si>
   <si>
-    <t>Democritus University of Thrace</t>
+    <t>Democritus University of Thrace end</t>
   </si>
   <si>
     <t>Campus</t>
@@ -118,10 +121,10 @@
     <t>AUTH</t>
   </si>
   <si>
-    <t>Aristotle University of Thessaloniki</t>
-  </si>
-  <si>
-    <t>Miller Lane</t>
+    <t>Aristotle University of Thessaloniki end</t>
+  </si>
+  <si>
+    <t>Miller</t>
   </si>
   <si>
     <t>Thessaloniki</t>
@@ -130,13 +133,13 @@
     <t>AUEB</t>
   </si>
   <si>
-    <t>Athens University of Economics and Business</t>
+    <t>Athens University of Economics and Business end</t>
   </si>
   <si>
     <t>UNIPI</t>
   </si>
   <si>
-    <t>University of Piraeus</t>
+    <t>University of Piraeus end</t>
   </si>
   <si>
     <t>Karaoli</t>
@@ -148,16 +151,16 @@
     <t>NOA</t>
   </si>
   <si>
-    <t>National Oservatory of Athens</t>
-  </si>
-  <si>
-    <t>Nimfon Hill</t>
+    <t>National Oservatory of Athens end</t>
+  </si>
+  <si>
+    <t>Nimfon</t>
   </si>
   <si>
     <t>NCSR</t>
   </si>
   <si>
-    <t>National Center for Scientific Research "Demokritos"</t>
+    <t>National Center for Scientific Research Demokritos end</t>
   </si>
   <si>
     <t>Neapoleos</t>
@@ -166,7 +169,7 @@
     <t>GRNET S.A.</t>
   </si>
   <si>
-    <t>National Infrastructures for Research and Technology</t>
+    <t>National Infrastructures for Research and Technology end</t>
   </si>
   <si>
     <t>Kifisias</t>
@@ -175,16 +178,16 @@
     <t>NHRF</t>
   </si>
   <si>
-    <t>National Hellenic Research Foundation</t>
-  </si>
-  <si>
-    <t>Vasileos Konstantinou</t>
+    <t>National Hellenic Research Foundation end</t>
+  </si>
+  <si>
+    <t>Konstantinou</t>
   </si>
   <si>
     <t>CERTH</t>
   </si>
   <si>
-    <t>Centre for Research &amp; Technology Hellas</t>
+    <t>Centre for Research &amp; Technology Hellas end</t>
   </si>
   <si>
     <t>Egialias</t>
@@ -193,13 +196,13 @@
     <t>GAEC</t>
   </si>
   <si>
-    <t>Greek Atomic Energy Commissions</t>
+    <t>Greek Atomic Energy Commissions end</t>
   </si>
   <si>
     <t>HCMR</t>
   </si>
   <si>
-    <t>Hellenic Centre for Marine Research</t>
+    <t>Hellenic Centre for Marine Research end</t>
   </si>
   <si>
     <t>Vouliagmenis</t>
@@ -208,10 +211,10 @@
     <t>FORTH</t>
   </si>
   <si>
-    <t>Foundation for Research and Technology - Hellas</t>
-  </si>
-  <si>
-    <t>Nikolaou Plastira</t>
+    <t>Foundation for Research and Technology - Hellas end</t>
+  </si>
+  <si>
+    <t>Plastira</t>
   </si>
   <si>
     <t>Heraklion</t>
@@ -220,7 +223,7 @@
     <t>CRES</t>
   </si>
   <si>
-    <t>Centre for Renewable Energy Sources and Saving</t>
+    <t>Centre for Renewable Energy Sources and Saving end</t>
   </si>
   <si>
     <t>Marathonos</t>
@@ -229,82 +232,82 @@
     <t>BSRC Fleming</t>
   </si>
   <si>
-    <t>Biomedical Sciences Research Center "Alexander Fleming"</t>
-  </si>
-  <si>
-    <t>Fleming Str.</t>
+    <t>Biomedical Sciences Research Center Alexander Fleming end</t>
+  </si>
+  <si>
+    <t>Fleming</t>
   </si>
   <si>
     <t>RF</t>
   </si>
   <si>
-    <t>Research Focus</t>
-  </si>
-  <si>
-    <t>Emeral Dreams Drive</t>
+    <t>Research Focus end</t>
+  </si>
+  <si>
+    <t>Emeral</t>
   </si>
   <si>
     <t>SP</t>
   </si>
   <si>
-    <t>Scipark</t>
-  </si>
-  <si>
-    <t>Cambridge Drive</t>
+    <t>Scipark end</t>
+  </si>
+  <si>
+    <t>Cambridge</t>
   </si>
   <si>
     <t>SC</t>
   </si>
   <si>
-    <t>Scolax</t>
-  </si>
-  <si>
-    <t>Scheuvront Drive</t>
+    <t>Scolax end</t>
+  </si>
+  <si>
+    <t>Scheuvront</t>
   </si>
   <si>
     <t>ELY</t>
   </si>
   <si>
-    <t>Experiment.ly</t>
-  </si>
-  <si>
-    <t>Hinkle Lake Road</t>
+    <t>Experiment.ly end</t>
+  </si>
+  <si>
+    <t>Hinkle</t>
   </si>
   <si>
     <t>IC</t>
   </si>
   <si>
-    <t>Intercomp</t>
-  </si>
-  <si>
-    <t>Essex Court</t>
+    <t>Intercomp end</t>
+  </si>
+  <si>
+    <t>Essex</t>
   </si>
   <si>
     <t>LL</t>
   </si>
   <si>
-    <t>Linkage Labs</t>
-  </si>
-  <si>
-    <t>Hog Camp Road</t>
+    <t>Linkage Labs end</t>
+  </si>
+  <si>
+    <t>Hog</t>
   </si>
   <si>
     <t>LM</t>
   </si>
   <si>
-    <t>LabMouse</t>
-  </si>
-  <si>
-    <t>Hedge Street</t>
+    <t>LabMouse end</t>
+  </si>
+  <si>
+    <t>Hedge</t>
   </si>
   <si>
     <t>OCL</t>
   </si>
   <si>
-    <t>Occulab</t>
-  </si>
-  <si>
-    <t>Freshour Circle</t>
+    <t>Occulab end</t>
+  </si>
+  <si>
+    <t>Freshour</t>
   </si>
   <si>
     <t>Tripoli</t>
@@ -313,10 +316,10 @@
     <t>CL</t>
   </si>
   <si>
-    <t>Config Lab</t>
-  </si>
-  <si>
-    <t>Nicholas Street</t>
+    <t>Config Lab end</t>
+  </si>
+  <si>
+    <t>Nicholas</t>
   </si>
   <si>
     <t>Lamia</t>
@@ -325,10 +328,10 @@
     <t>FL</t>
   </si>
   <si>
-    <t>Faculty Labs</t>
-  </si>
-  <si>
-    <t>Johnstown Road</t>
+    <t>Faculty Labs end</t>
+  </si>
+  <si>
+    <t>Johnstown</t>
   </si>
   <si>
     <t>Sparta</t>
@@ -340,9 +343,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -370,16 +373,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,32 +396,26 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -431,10 +427,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -446,23 +443,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,7 +453,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,17 +468,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -508,7 +504,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -523,187 +526,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,6 +717,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -728,24 +764,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,9 +785,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -789,28 +809,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -819,121 +822,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -942,25 +945,25 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1302,22 +1305,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9.9" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="45" customWidth="1"/>
-    <col min="5" max="5" width="17.6" customWidth="1"/>
-    <col min="7" max="7" width="10.3" customWidth="1"/>
+    <col min="4" max="4" width="48.25" customWidth="1"/>
+    <col min="5" max="6" width="17.6" customWidth="1"/>
+    <col min="8" max="8" width="10.3" customWidth="1"/>
+    <col min="9" max="9" width="48.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1339,8 +1343,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1348,22 +1355,25 @@
         <v>78001</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2">
+        <v>682</v>
+      </c>
+      <c r="G2">
         <v>10682</v>
       </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1371,22 +1381,25 @@
         <v>78002</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5">
+        <v>784</v>
+      </c>
+      <c r="G3" s="5">
+        <v>15784</v>
+      </c>
+      <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="5">
-        <v>15784</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1394,22 +1407,25 @@
         <v>78003</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4">
+        <v>504</v>
+      </c>
+      <c r="G4">
         <v>26504</v>
       </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1417,22 +1433,25 @@
         <v>78004</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5">
+        <v>221</v>
+      </c>
+      <c r="G5">
         <v>38221</v>
       </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1440,22 +1459,25 @@
         <v>78005</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6">
+        <v>243</v>
+      </c>
+      <c r="G6">
         <v>12243</v>
       </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1463,22 +1485,25 @@
         <v>78006</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
         <v>73100</v>
       </c>
-      <c r="G7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1486,22 +1511,25 @@
         <v>78007</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
         <v>69100</v>
       </c>
-      <c r="G8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1509,22 +1537,25 @@
         <v>78008</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9">
+        <v>124</v>
+      </c>
+      <c r="G9">
         <v>54124</v>
       </c>
-      <c r="G9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1532,22 +1563,25 @@
         <v>78009</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10">
+        <v>34</v>
+      </c>
+      <c r="G10">
         <v>10434</v>
       </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1555,22 +1589,25 @@
         <v>78010</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11">
+        <v>534</v>
+      </c>
+      <c r="G11">
         <v>18534</v>
       </c>
-      <c r="G11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1578,22 +1615,25 @@
         <v>78011</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
         <v>11810</v>
       </c>
-      <c r="G12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1601,22 +1641,25 @@
         <v>78012</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F13">
+        <v>341</v>
+      </c>
+      <c r="G13">
         <v>15341</v>
       </c>
-      <c r="G13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1624,22 +1667,25 @@
         <v>78013</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
         <v>11523</v>
       </c>
-      <c r="G14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1647,22 +1693,25 @@
         <v>78014</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F15">
+        <v>635</v>
+      </c>
+      <c r="G15">
         <v>11635</v>
       </c>
-      <c r="G15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1670,22 +1719,25 @@
         <v>78015</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F16">
+        <v>25</v>
+      </c>
+      <c r="G16">
         <v>15125</v>
       </c>
-      <c r="G16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1693,22 +1745,25 @@
         <v>78016</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F17">
+        <v>41</v>
+      </c>
+      <c r="G17">
         <v>15341</v>
       </c>
-      <c r="G17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1716,22 +1771,25 @@
         <v>78017</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F18">
+        <v>452</v>
+      </c>
+      <c r="G18">
         <v>16452</v>
       </c>
-      <c r="G18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1739,22 +1797,25 @@
         <v>78018</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F19">
+        <v>13</v>
+      </c>
+      <c r="G19">
         <v>70013</v>
       </c>
-      <c r="G19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1762,22 +1823,25 @@
         <v>78019</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F20">
+        <v>9</v>
+      </c>
+      <c r="G20">
         <v>19009</v>
       </c>
-      <c r="G20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1785,22 +1849,25 @@
         <v>78020</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F21">
+        <v>672</v>
+      </c>
+      <c r="G21">
         <v>16672</v>
       </c>
-      <c r="G21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1808,22 +1875,25 @@
         <v>78021</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F22">
+        <v>102</v>
+      </c>
+      <c r="G22">
         <v>8102</v>
       </c>
-      <c r="G22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1831,22 +1901,25 @@
         <v>78022</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F23">
+        <v>502</v>
+      </c>
+      <c r="G23">
         <v>86502</v>
       </c>
-      <c r="G23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1854,22 +1927,25 @@
         <v>78023</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F24">
+        <v>66</v>
+      </c>
+      <c r="G24">
         <v>94566</v>
       </c>
-      <c r="G24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1877,22 +1953,25 @@
         <v>78024</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F25">
+        <v>38</v>
+      </c>
+      <c r="G25">
         <v>2038</v>
       </c>
-      <c r="G25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1900,22 +1979,25 @@
         <v>78025</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F26">
+        <v>93</v>
+      </c>
+      <c r="G26">
         <v>27893</v>
       </c>
-      <c r="G26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1923,22 +2005,25 @@
         <v>78026</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F27">
+        <v>466</v>
+      </c>
+      <c r="G27">
         <v>60466</v>
       </c>
-      <c r="G27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1946,22 +2031,25 @@
         <v>78027</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F28">
+        <v>701</v>
+      </c>
+      <c r="G28">
         <v>7701</v>
       </c>
-      <c r="G28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -1969,22 +2057,25 @@
         <v>78028</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F29">
+        <v>205</v>
+      </c>
+      <c r="G29">
         <v>78205</v>
       </c>
-      <c r="G29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1992,22 +2083,25 @@
         <v>78029</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F30">
+        <v>427</v>
+      </c>
+      <c r="G30">
         <v>66427</v>
       </c>
-      <c r="G30" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -2015,19 +2109,22 @@
         <v>78030</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F31">
+        <v>148</v>
+      </c>
+      <c r="G31">
         <v>60148</v>
       </c>
-      <c r="G31" t="s">
-        <v>105</v>
+      <c r="H31" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:1">
